--- a/assets/metadata/latest/PancDB_scRNA-seq_metadata_2022-06-15.xlsx
+++ b/assets/metadata/latest/PancDB_scRNA-seq_metadata_2022-06-15.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26102"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elisabetta\Documents\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F3DD6FCE41F44B18031E71A3FDB89DA884C35E81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37590" windowHeight="13680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37590" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PancDB_scRNA-seq_metadata_updat" sheetId="1" r:id="rId1"/>
@@ -1065,8 +1066,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1866,16 +1867,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K64" workbookViewId="0">
       <selection activeCell="K72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -2592,7 +2593,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>-0.200143301</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>-0.26894723500000001</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>-0.48655639699999997</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>-0.225162801</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>-0.24724563899999999</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>-0.33187124099999998</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>0.217891961</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47">
       <c r="A28" t="s">
         <v>155</v>
       </c>
@@ -3941,7 +3942,7 @@
         <v>-5.8926004999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47">
       <c r="A29" t="s">
         <v>160</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>-0.22018935000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>-0.134159574</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47">
       <c r="A31" t="s">
         <v>165</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>-0.24626569500000001</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>-0.19692474900000001</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -4656,7 +4657,7 @@
         <v>3.5496406000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47">
       <c r="A34" t="s">
         <v>176</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>5.6740635999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>-8.1815968000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47">
       <c r="A36" t="s">
         <v>182</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>-0.335206581</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47">
       <c r="A37" t="s">
         <v>187</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>-0.29643486400000002</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>-0.22559052900000001</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47">
       <c r="A39" t="s">
         <v>193</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>-0.35843884799999998</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47">
       <c r="A40" t="s">
         <v>195</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>-0.140875054</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>-0.41854213800000001</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47">
       <c r="A42" t="s">
         <v>199</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>-8.0050275000000004E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -6086,7 +6087,7 @@
         <v>-0.401311468</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -6229,7 +6230,7 @@
         <v>-0.25989819600000003</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47">
       <c r="A45" t="s">
         <v>211</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>-0.361491862</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47">
       <c r="A46" t="s">
         <v>213</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>-0.26186022399999997</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>-2.6573696000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47">
       <c r="A48" t="s">
         <v>219</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>-0.18032557399999999</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47">
       <c r="A49" t="s">
         <v>224</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>-0.38991610300000001</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47">
       <c r="A50" t="s">
         <v>226</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>-0.22657909700000001</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47">
       <c r="A51" t="s">
         <v>228</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>-0.100081693</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47">
       <c r="A52" t="s">
         <v>233</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>-0.27601674100000001</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47">
       <c r="A53" t="s">
         <v>235</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>-6.1070990999999998E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47">
       <c r="A54" t="s">
         <v>237</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>-0.158843609</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47">
       <c r="A55" t="s">
         <v>239</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>-2.4358999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47">
       <c r="A56" t="s">
         <v>248</v>
       </c>
@@ -7927,7 +7928,7 @@
         <v>-7.8455699999999996E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47">
       <c r="A57" t="s">
         <v>250</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>-2.6138499999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47">
       <c r="A58" t="s">
         <v>252</v>
       </c>
@@ -8195,7 +8196,7 @@
         <v>-2.0091299999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47">
       <c r="A59" t="s">
         <v>254</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>-1.5488099999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>1.7443400000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -8597,7 +8598,7 @@
         <v>2.5491099999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47">
       <c r="A62" t="s">
         <v>265</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>-6.4810000000000006E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47">
       <c r="A63" t="s">
         <v>267</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>-1.6986899999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47">
       <c r="A64" t="s">
         <v>269</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>-1.62209E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47">
       <c r="A65" t="s">
         <v>271</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v>1.34303E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47">
       <c r="A66" t="s">
         <v>275</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>3.5507499999999997E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47">
       <c r="A67" t="s">
         <v>278</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>6.7587899999999998E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -9535,7 +9536,7 @@
         <v>2.2504900000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47">
       <c r="A69" t="s">
         <v>282</v>
       </c>
@@ -9669,7 +9670,7 @@
         <v>-3.6532799999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47">
       <c r="A70" t="s">
         <v>284</v>
       </c>
@@ -9803,7 +9804,7 @@
         <v>-8.9900099999999997E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47">
       <c r="A71" t="s">
         <v>290</v>
       </c>
@@ -9937,7 +9938,7 @@
         <v>-1.9606599999999998E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47">
       <c r="A72" t="s">
         <v>294</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>-0.27602700000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47">
       <c r="A73" t="s">
         <v>301</v>
       </c>
@@ -10217,7 +10218,7 @@
         <v>-0.47922799999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47">
       <c r="A74" t="s">
         <v>307</v>
       </c>
@@ -10357,7 +10358,7 @@
         <v>-0.33838499999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47">
       <c r="A75" t="s">
         <v>311</v>
       </c>
@@ -10497,7 +10498,7 @@
         <v>-0.29202499999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47">
       <c r="A76" t="s">
         <v>317</v>
       </c>
@@ -10637,7 +10638,7 @@
         <v>-0.35575299999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47">
       <c r="A77" t="s">
         <v>319</v>
       </c>
@@ -10777,7 +10778,7 @@
         <v>-2.4990700000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47">
       <c r="A78" t="s">
         <v>321</v>
       </c>
@@ -10917,7 +10918,7 @@
         <v>-0.23730499999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47">
       <c r="A79" t="s">
         <v>325</v>
       </c>
@@ -11057,7 +11058,7 @@
         <v>-0.43641400000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47">
       <c r="A80" t="s">
         <v>327</v>
       </c>
@@ -11197,7 +11198,7 @@
         <v>-0.27191900000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47">
       <c r="A81" t="s">
         <v>329</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>-0.23936099999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47">
       <c r="A82" t="s">
         <v>331</v>
       </c>
@@ -11477,7 +11478,7 @@
         <v>-0.52670799999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47">
       <c r="A83" t="s">
         <v>333</v>
       </c>
@@ -11617,7 +11618,7 @@
         <v>-0.39342300000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47">
       <c r="A84" t="s">
         <v>335</v>
       </c>
@@ -11757,7 +11758,7 @@
         <v>-0.23754500000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47">
       <c r="A85" t="s">
         <v>339</v>
       </c>
@@ -11897,7 +11898,7 @@
         <v>-0.16342300000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47">
       <c r="A86" t="s">
         <v>341</v>
       </c>
@@ -12037,7 +12038,7 @@
         <v>-0.15682299999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47">
       <c r="A87" t="s">
         <v>345</v>
       </c>
